--- a/ETLValidation/mimic-unit-tests.xlsx
+++ b/ETLValidation/mimic-unit-tests.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4a1b76fc53c8d54b/ohdsi/unittest/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="26" documentId="8_{74A8338D-BA37-436D-949E-7C16F3324D88}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{D4FF278B-835D-4EDE-9FE4-85F4E77FE8DA}"/>
+  <xr:revisionPtr revIDLastSave="27" documentId="8_{74A8338D-BA37-436D-949E-7C16F3324D88}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{08BC1AF0-5F43-43C5-959B-63852DF592DA}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{FF3BFCDC-7961-4181-8933-09BDA79B7706}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="82">
   <si>
     <t>PERSON</t>
   </si>
@@ -247,12 +247,6 @@
     <t>standard</t>
   </si>
   <si>
-    <t>all standard may not apply to other sources</t>
-  </si>
-  <si>
-    <t>all source concept in vocab also does not apply to all sources</t>
-  </si>
-  <si>
     <t>start_datetime should be &gt; end_datetime</t>
   </si>
   <si>
@@ -271,9 +265,6 @@
     <t>check label is consistent with source_value</t>
   </si>
   <si>
-    <t>simply compare source value count (group by source value)</t>
-  </si>
-  <si>
     <t>check all CPT code rows inserted</t>
   </si>
   <si>
@@ -281,9 +272,6 @@
   </si>
   <si>
     <t>procedure_type_concept_id = 257</t>
-  </si>
-  <si>
-    <t>count of distinct personID and distinct visit_occurrence_id</t>
   </si>
   <si>
     <t>check CPT subsections mapped correctly</t>
@@ -717,11 +705,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47C738B4-52BB-44E4-90D8-4A5B1B92B166}">
-  <dimension ref="A1:R36"/>
+  <dimension ref="A1:P36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="T4" sqref="T4"/>
+      <selection pane="bottomLeft" activeCell="R33" sqref="R33:R36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -731,10 +719,10 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>6</v>
@@ -764,7 +752,7 @@
         <v>16</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="M1" s="4" t="s">
         <v>18</v>
@@ -988,10 +976,10 @@
         <v>42</v>
       </c>
       <c r="J19" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="K19" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
@@ -1121,7 +1109,7 @@
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C30" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F30">
         <v>1</v>
@@ -1135,16 +1123,16 @@
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C31" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D31" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F31">
         <v>2</v>
       </c>
       <c r="J31" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="L31" t="s">
         <v>17</v>
@@ -1155,75 +1143,63 @@
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B32">
         <v>5</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D32" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="K32" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="33" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C33" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="K33" t="s">
         <v>30</v>
       </c>
-      <c r="R33" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="34" spans="3:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C34" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D34" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="K34" t="s">
         <v>48</v>
       </c>
-      <c r="R34" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="35" spans="3:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C35" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D35" t="s">
+        <v>72</v>
+      </c>
+      <c r="K35" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="36" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C36" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="D35" t="s">
-        <v>76</v>
-      </c>
-      <c r="K35" t="s">
+      <c r="D36" t="s">
         <v>75</v>
-      </c>
-      <c r="R35" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="36" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="C36" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D36" t="s">
-        <v>79</v>
       </c>
       <c r="K36" t="s">
         <v>48</v>
-      </c>
-      <c r="R36" t="s">
-        <v>73</v>
       </c>
     </row>
   </sheetData>
